--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-document-with-sr.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$377</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13483" uniqueCount="707">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T13:35:09+00:00</t>
+    <t>2025-05-22T12:28:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1078,10 +1078,6 @@
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
@@ -1201,10 +1197,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1320,10 +1312,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1548,10 +1536,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -1657,11 +1641,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2080,6 +2064,121 @@
   </si>
   <si>
     <t>Bundle.entry:Location.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Health insurance card</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coverage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-coverage}
+</t>
+  </si>
+  <si>
+    <t>CH Core Coverage</t>
+  </si>
+  <si>
+    <t>This is basic constraint on Coverage for use in CH Core resources.</t>
+  </si>
+  <si>
+    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Coverage.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2430,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN345"/>
+  <dimension ref="A1:AN377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2439,17 +2538,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2458,26 +2557,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5237,7 +5336,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -9419,7 +9518,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>89</v>
@@ -9505,7 +9604,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9619,16 +9718,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9636,7 +9735,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>254</v>
@@ -9748,7 +9847,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>258</v>
@@ -9860,7 +9959,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>259</v>
@@ -9974,7 +10073,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>260</v>
@@ -10090,7 +10189,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>261</v>
@@ -10204,7 +10303,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>267</v>
@@ -10318,7 +10417,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>272</v>
@@ -10430,7 +10529,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>276</v>
@@ -10542,7 +10641,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>277</v>
@@ -10656,7 +10755,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>278</v>
@@ -10772,7 +10871,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>279</v>
@@ -10884,7 +10983,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -10998,7 +11097,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>288</v>
@@ -11110,7 +11209,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -11222,7 +11321,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>293</v>
@@ -11334,7 +11433,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>296</v>
@@ -11446,7 +11545,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>299</v>
@@ -11558,7 +11657,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>303</v>
@@ -11670,7 +11769,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>304</v>
@@ -11784,7 +11883,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>305</v>
@@ -11900,7 +11999,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>306</v>
@@ -12012,7 +12111,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>309</v>
@@ -12124,7 +12223,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>312</v>
@@ -12238,7 +12337,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>316</v>
@@ -12352,7 +12451,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>320</v>
@@ -12466,13 +12565,13 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>79</v>
@@ -12580,7 +12679,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>239</v>
@@ -12692,7 +12791,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>240</v>
@@ -12806,7 +12905,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>241</v>
@@ -12922,7 +13021,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>242</v>
@@ -13034,7 +13133,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>245</v>
@@ -13045,7 +13144,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>89</v>
@@ -13131,7 +13230,7 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13148,14 +13247,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13174,13 +13273,13 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13243,16 +13342,16 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13260,7 +13359,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>254</v>
@@ -13372,7 +13471,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>258</v>
@@ -13484,7 +13583,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>259</v>
@@ -13598,7 +13697,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>260</v>
@@ -13714,7 +13813,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>261</v>
@@ -13828,7 +13927,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>267</v>
@@ -13942,7 +14041,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>272</v>
@@ -14054,7 +14153,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>276</v>
@@ -14166,7 +14265,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>277</v>
@@ -14280,7 +14379,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>278</v>
@@ -14396,7 +14495,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>279</v>
@@ -14508,7 +14607,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -14622,7 +14721,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>288</v>
@@ -14734,7 +14833,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -14846,7 +14945,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>293</v>
@@ -14958,7 +15057,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>296</v>
@@ -15070,7 +15169,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>299</v>
@@ -15182,7 +15281,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>303</v>
@@ -15294,7 +15393,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>304</v>
@@ -15408,7 +15507,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -15524,7 +15623,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>306</v>
@@ -15636,7 +15735,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>309</v>
@@ -15748,7 +15847,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>312</v>
@@ -15862,7 +15961,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>316</v>
@@ -15976,7 +16075,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>320</v>
@@ -16090,13 +16189,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>79</v>
@@ -16204,7 +16303,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>239</v>
@@ -16316,7 +16415,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>240</v>
@@ -16430,7 +16529,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>241</v>
@@ -16546,7 +16645,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>242</v>
@@ -16658,7 +16757,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>245</v>
@@ -16669,7 +16768,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>89</v>
@@ -16755,7 +16854,7 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>79</v>
@@ -16772,7 +16871,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>250</v>
@@ -16798,13 +16897,13 @@
         <v>79</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -16867,13 +16966,13 @@
         <v>79</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>79</v>
@@ -16884,7 +16983,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>254</v>
@@ -16996,7 +17095,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>258</v>
@@ -17108,7 +17207,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>259</v>
@@ -17222,7 +17321,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>260</v>
@@ -17338,7 +17437,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>261</v>
@@ -17452,7 +17551,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>267</v>
@@ -17566,7 +17665,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>272</v>
@@ -17678,7 +17777,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>276</v>
@@ -17790,7 +17889,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>277</v>
@@ -17904,7 +18003,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>278</v>
@@ -18020,7 +18119,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>279</v>
@@ -18132,7 +18231,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18246,7 +18345,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>288</v>
@@ -18358,7 +18457,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18470,7 +18569,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>293</v>
@@ -18582,7 +18681,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>296</v>
@@ -18694,7 +18793,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>299</v>
@@ -18806,7 +18905,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>303</v>
@@ -18918,7 +19017,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>304</v>
@@ -19032,7 +19131,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>305</v>
@@ -19148,7 +19247,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>306</v>
@@ -19260,7 +19359,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>309</v>
@@ -19372,7 +19471,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>312</v>
@@ -19486,7 +19585,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>316</v>
@@ -19600,7 +19699,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>320</v>
@@ -19714,13 +19813,13 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>79</v>
@@ -19828,7 +19927,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>239</v>
@@ -19940,7 +20039,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>240</v>
@@ -20054,7 +20153,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>241</v>
@@ -20170,7 +20269,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>242</v>
@@ -20282,7 +20381,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>245</v>
@@ -20293,7 +20392,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>89</v>
@@ -20379,7 +20478,7 @@
         <v>79</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>79</v>
@@ -20396,7 +20495,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>250</v>
@@ -20422,13 +20521,13 @@
         <v>79</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20491,13 +20590,13 @@
         <v>79</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>79</v>
@@ -20508,7 +20607,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>254</v>
@@ -20620,7 +20719,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>258</v>
@@ -20732,7 +20831,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>259</v>
@@ -20846,7 +20945,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>260</v>
@@ -20962,7 +21061,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>261</v>
@@ -21076,7 +21175,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>267</v>
@@ -21190,7 +21289,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>272</v>
@@ -21302,7 +21401,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>276</v>
@@ -21414,7 +21513,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>277</v>
@@ -21528,7 +21627,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>278</v>
@@ -21644,7 +21743,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>279</v>
@@ -21756,7 +21855,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -21870,7 +21969,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>288</v>
@@ -21982,7 +22081,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22094,7 +22193,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>293</v>
@@ -22206,7 +22305,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>296</v>
@@ -22318,7 +22417,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>299</v>
@@ -22430,7 +22529,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>303</v>
@@ -22542,7 +22641,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>304</v>
@@ -22656,7 +22755,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>305</v>
@@ -22772,7 +22871,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>306</v>
@@ -22884,7 +22983,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>309</v>
@@ -22996,7 +23095,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>312</v>
@@ -23110,7 +23209,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>316</v>
@@ -23224,7 +23323,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>320</v>
@@ -23338,13 +23437,13 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>79</v>
@@ -23452,7 +23551,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>239</v>
@@ -23564,7 +23663,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>240</v>
@@ -23678,7 +23777,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>241</v>
@@ -23794,7 +23893,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>242</v>
@@ -23906,7 +24005,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>245</v>
@@ -23917,7 +24016,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>89</v>
@@ -24003,7 +24102,7 @@
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
@@ -24020,7 +24119,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>250</v>
@@ -24046,13 +24145,13 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -24115,13 +24214,13 @@
         <v>79</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>79</v>
@@ -24132,7 +24231,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>254</v>
@@ -24244,7 +24343,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>258</v>
@@ -24356,7 +24455,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>259</v>
@@ -24470,7 +24569,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>260</v>
@@ -24586,7 +24685,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>261</v>
@@ -24700,7 +24799,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>267</v>
@@ -24814,7 +24913,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>272</v>
@@ -24926,7 +25025,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>276</v>
@@ -25038,7 +25137,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>277</v>
@@ -25152,7 +25251,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>278</v>
@@ -25268,7 +25367,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>279</v>
@@ -25380,7 +25479,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25494,7 +25593,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>288</v>
@@ -25606,7 +25705,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -25718,7 +25817,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>293</v>
@@ -25830,7 +25929,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>296</v>
@@ -25942,7 +26041,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>299</v>
@@ -26054,7 +26153,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>303</v>
@@ -26166,7 +26265,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>304</v>
@@ -26280,7 +26379,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>305</v>
@@ -26396,7 +26495,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>306</v>
@@ -26508,7 +26607,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>309</v>
@@ -26620,7 +26719,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>312</v>
@@ -26734,7 +26833,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>316</v>
@@ -26848,7 +26947,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>320</v>
@@ -26962,13 +27061,13 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>79</v>
@@ -27076,7 +27175,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>239</v>
@@ -27188,7 +27287,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>240</v>
@@ -27302,7 +27401,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>241</v>
@@ -27418,7 +27517,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>242</v>
@@ -27530,7 +27629,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>245</v>
@@ -27541,7 +27640,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>89</v>
@@ -27627,7 +27726,7 @@
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
@@ -27644,7 +27743,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>250</v>
@@ -27670,13 +27769,13 @@
         <v>79</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -27739,13 +27838,13 @@
         <v>79</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>79</v>
@@ -27756,7 +27855,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>254</v>
@@ -27868,7 +27967,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>258</v>
@@ -27980,7 +28079,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>259</v>
@@ -28094,7 +28193,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>260</v>
@@ -28210,7 +28309,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>261</v>
@@ -28324,7 +28423,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>267</v>
@@ -28438,7 +28537,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>272</v>
@@ -28550,7 +28649,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>276</v>
@@ -28662,7 +28761,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>277</v>
@@ -28776,7 +28875,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>278</v>
@@ -28892,7 +28991,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>279</v>
@@ -29004,7 +29103,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29118,7 +29217,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>288</v>
@@ -29230,7 +29329,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29342,7 +29441,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>293</v>
@@ -29454,7 +29553,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>296</v>
@@ -29566,7 +29665,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>299</v>
@@ -29678,7 +29777,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>303</v>
@@ -29790,7 +29889,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>304</v>
@@ -29904,7 +30003,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>305</v>
@@ -30020,7 +30119,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>306</v>
@@ -30132,7 +30231,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>309</v>
@@ -30244,7 +30343,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>312</v>
@@ -30358,7 +30457,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>316</v>
@@ -30472,7 +30571,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>320</v>
@@ -30586,13 +30685,13 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D249" t="s" s="2">
         <v>79</v>
@@ -30700,7 +30799,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>239</v>
@@ -30812,7 +30911,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>240</v>
@@ -30926,7 +31025,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>241</v>
@@ -31042,7 +31141,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>242</v>
@@ -31154,7 +31253,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>245</v>
@@ -31165,7 +31264,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>89</v>
@@ -31251,7 +31350,7 @@
         <v>79</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>79</v>
@@ -31268,7 +31367,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>250</v>
@@ -31294,13 +31393,13 @@
         <v>79</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -31363,13 +31462,13 @@
         <v>79</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK255" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>79</v>
@@ -31380,7 +31479,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>254</v>
@@ -31492,7 +31591,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>258</v>
@@ -31604,7 +31703,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>259</v>
@@ -31718,7 +31817,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>260</v>
@@ -31834,7 +31933,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>261</v>
@@ -31948,7 +32047,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>267</v>
@@ -32062,7 +32161,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>272</v>
@@ -32174,7 +32273,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>276</v>
@@ -32286,7 +32385,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>277</v>
@@ -32400,7 +32499,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>278</v>
@@ -32516,7 +32615,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>279</v>
@@ -32628,7 +32727,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -32742,7 +32841,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>288</v>
@@ -32854,7 +32953,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -32966,7 +33065,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>293</v>
@@ -33078,7 +33177,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>296</v>
@@ -33190,7 +33289,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>299</v>
@@ -33302,7 +33401,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>303</v>
@@ -33414,7 +33513,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>304</v>
@@ -33528,7 +33627,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>305</v>
@@ -33644,7 +33743,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>306</v>
@@ -33756,7 +33855,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>309</v>
@@ -33868,7 +33967,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>312</v>
@@ -33982,7 +34081,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>316</v>
@@ -34096,7 +34195,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>320</v>
@@ -34210,13 +34309,13 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>79</v>
@@ -34324,7 +34423,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>239</v>
@@ -34436,7 +34535,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>240</v>
@@ -34550,7 +34649,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>241</v>
@@ -34666,7 +34765,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>242</v>
@@ -34778,7 +34877,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>245</v>
@@ -34789,7 +34888,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>89</v>
@@ -34875,7 +34974,7 @@
         <v>79</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>79</v>
@@ -34892,14 +34991,14 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -34918,13 +35017,13 @@
         <v>79</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -34987,13 +35086,13 @@
         <v>79</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>79</v>
@@ -35004,7 +35103,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>254</v>
@@ -35116,7 +35215,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>258</v>
@@ -35228,7 +35327,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>259</v>
@@ -35342,7 +35441,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>260</v>
@@ -35458,7 +35557,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>261</v>
@@ -35572,7 +35671,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>267</v>
@@ -35686,7 +35785,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>272</v>
@@ -35798,7 +35897,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>276</v>
@@ -35910,7 +36009,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>277</v>
@@ -36024,7 +36123,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>278</v>
@@ -36140,7 +36239,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>279</v>
@@ -36252,7 +36351,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36366,7 +36465,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>288</v>
@@ -36478,7 +36577,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -36590,7 +36689,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>293</v>
@@ -36702,7 +36801,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>296</v>
@@ -36814,7 +36913,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>299</v>
@@ -36926,7 +37025,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>303</v>
@@ -37038,7 +37137,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>304</v>
@@ -37152,7 +37251,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>305</v>
@@ -37268,7 +37367,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>306</v>
@@ -37380,7 +37479,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>309</v>
@@ -37492,7 +37591,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>312</v>
@@ -37606,7 +37705,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>316</v>
@@ -37720,7 +37819,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>320</v>
@@ -37834,13 +37933,13 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>234</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>79</v>
@@ -37948,7 +38047,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>239</v>
@@ -38060,7 +38159,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>240</v>
@@ -38174,7 +38273,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>241</v>
@@ -38290,7 +38389,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>242</v>
@@ -38402,7 +38501,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>245</v>
@@ -38413,7 +38512,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>89</v>
@@ -38499,7 +38598,7 @@
         <v>79</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>79</v>
@@ -38516,7 +38615,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>250</v>
@@ -38542,13 +38641,13 @@
         <v>79</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -38611,13 +38710,13 @@
         <v>79</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AK319" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>79</v>
@@ -38628,7 +38727,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>254</v>
@@ -38740,7 +38839,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>258</v>
@@ -38852,7 +38951,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>259</v>
@@ -38966,7 +39065,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>260</v>
@@ -39082,7 +39181,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>261</v>
@@ -39196,7 +39295,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>267</v>
@@ -39310,7 +39409,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>272</v>
@@ -39422,7 +39521,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>276</v>
@@ -39534,7 +39633,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>277</v>
@@ -39648,7 +39747,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>278</v>
@@ -39764,7 +39863,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>279</v>
@@ -39876,7 +39975,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -39990,7 +40089,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>288</v>
@@ -40102,7 +40201,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40214,7 +40313,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>293</v>
@@ -40326,7 +40425,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>296</v>
@@ -40438,7 +40537,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>299</v>
@@ -40550,7 +40649,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>303</v>
@@ -40662,7 +40761,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>304</v>
@@ -40776,7 +40875,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>305</v>
@@ -40892,7 +40991,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>306</v>
@@ -41004,7 +41103,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>309</v>
@@ -41116,7 +41215,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>312</v>
@@ -41230,7 +41329,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>316</v>
@@ -41344,7 +41443,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>320</v>
@@ -41458,12 +41557,14 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="C345" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C345" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="D345" t="s" s="2">
         <v>79</v>
       </c>
@@ -41472,7 +41573,7 @@
         <v>80</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H345" t="s" s="2">
         <v>79</v>
@@ -41484,20 +41585,16 @@
         <v>90</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>668</v>
+        <v>216</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>672</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
       <c r="P345" t="s" s="2">
         <v>79</v>
       </c>
@@ -41545,35 +41642,3663 @@
         <v>79</v>
       </c>
       <c r="AF345" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG345" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH345" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI345" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ345" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK345" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL345" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM345" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN345" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="346" hidden="true">
+      <c r="A346" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C346" s="2"/>
+      <c r="D346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E346" s="2"/>
+      <c r="F346" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N346" s="2"/>
+      <c r="O346" s="2"/>
+      <c r="P346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q346" s="2"/>
+      <c r="R346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL346" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN346" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="347" hidden="true">
+      <c r="A347" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AG345" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH345" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI345" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ345" t="s" s="2">
+      <c r="B347" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C347" s="2"/>
+      <c r="D347" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E347" s="2"/>
+      <c r="F347" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O347" s="2"/>
+      <c r="P347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q347" s="2"/>
+      <c r="R347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL347" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN347" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="348" hidden="true">
+      <c r="A348" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C348" s="2"/>
+      <c r="D348" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="E348" s="2"/>
+      <c r="F348" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q348" s="2"/>
+      <c r="R348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL348" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM348" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN348" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="349" hidden="true">
+      <c r="A349" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C349" s="2"/>
+      <c r="D349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E349" s="2"/>
+      <c r="F349" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N349" s="2"/>
+      <c r="O349" s="2"/>
+      <c r="P349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q349" s="2"/>
+      <c r="R349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK345" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL345" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM345" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN345" t="s" s="2">
+      <c r="AK349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM349" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN349" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="350" hidden="true">
+      <c r="A350" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C350" s="2"/>
+      <c r="D350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E350" s="2"/>
+      <c r="F350" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O350" s="2"/>
+      <c r="P350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q350" s="2"/>
+      <c r="R350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM350" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN350" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="351" hidden="true">
+      <c r="A351" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C351" s="2"/>
+      <c r="D351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E351" s="2"/>
+      <c r="F351" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="O351" s="2"/>
+      <c r="P351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q351" s="2"/>
+      <c r="R351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL351" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AM351" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN351" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="352" hidden="true">
+      <c r="A352" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C352" s="2"/>
+      <c r="D352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E352" s="2"/>
+      <c r="F352" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G352" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N352" s="2"/>
+      <c r="O352" s="2"/>
+      <c r="P352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q352" s="2"/>
+      <c r="R352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN352" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="353" hidden="true">
+      <c r="A353" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C353" s="2"/>
+      <c r="D353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G353" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N353" s="2"/>
+      <c r="O353" s="2"/>
+      <c r="P353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q353" s="2"/>
+      <c r="R353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL353" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN353" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="354" hidden="true">
+      <c r="A354" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C354" s="2"/>
+      <c r="D354" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E354" s="2"/>
+      <c r="F354" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G354" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O354" s="2"/>
+      <c r="P354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q354" s="2"/>
+      <c r="R354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL354" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM354" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN354" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="355" hidden="true">
+      <c r="A355" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C355" s="2"/>
+      <c r="D355" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q355" s="2"/>
+      <c r="R355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL355" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM355" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN355" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="356" hidden="true">
+      <c r="A356" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E356" s="2"/>
+      <c r="F356" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G356" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O356" s="2"/>
+      <c r="P356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q356" s="2"/>
+      <c r="R356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM356" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN356" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="357" hidden="true">
+      <c r="A357" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C357" s="2"/>
+      <c r="D357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E357" s="2"/>
+      <c r="F357" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G357" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O357" s="2"/>
+      <c r="P357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q357" s="2"/>
+      <c r="R357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM357" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN357" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="358" hidden="true">
+      <c r="A358" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E358" s="2"/>
+      <c r="F358" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G358" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+      <c r="P358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q358" s="2"/>
+      <c r="R358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM358" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN358" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="359" hidden="true">
+      <c r="A359" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C359" s="2"/>
+      <c r="D359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E359" s="2"/>
+      <c r="F359" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G359" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+      <c r="P359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q359" s="2"/>
+      <c r="R359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG359" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH359" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL359" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM359" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN359" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="360" hidden="true">
+      <c r="A360" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C360" s="2"/>
+      <c r="D360" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E360" s="2"/>
+      <c r="F360" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G360" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O360" s="2"/>
+      <c r="P360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q360" s="2"/>
+      <c r="R360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG360" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH360" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ360" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL360" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM360" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN360" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="361" hidden="true">
+      <c r="A361" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C361" s="2"/>
+      <c r="D361" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="E361" s="2"/>
+      <c r="F361" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G361" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q361" s="2"/>
+      <c r="R361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG361" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL361" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM361" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN361" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="362" hidden="true">
+      <c r="A362" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C362" s="2"/>
+      <c r="D362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E362" s="2"/>
+      <c r="F362" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G362" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N362" s="2"/>
+      <c r="O362" s="2"/>
+      <c r="P362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q362" s="2"/>
+      <c r="R362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN362" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="363" hidden="true">
+      <c r="A363" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C363" s="2"/>
+      <c r="D363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E363" s="2"/>
+      <c r="F363" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G363" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O363" s="2"/>
+      <c r="P363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q363" s="2"/>
+      <c r="R363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN363" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="364" hidden="true">
+      <c r="A364" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C364" s="2"/>
+      <c r="D364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E364" s="2"/>
+      <c r="F364" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G364" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+      <c r="P364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q364" s="2"/>
+      <c r="R364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM364" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN364" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="365" hidden="true">
+      <c r="A365" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C365" s="2"/>
+      <c r="D365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E365" s="2"/>
+      <c r="F365" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G365" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+      <c r="P365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q365" s="2"/>
+      <c r="R365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM365" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN365" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="366" hidden="true">
+      <c r="A366" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E366" s="2"/>
+      <c r="F366" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G366" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N366" s="2"/>
+      <c r="O366" s="2"/>
+      <c r="P366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q366" s="2"/>
+      <c r="R366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM366" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN366" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="367" hidden="true">
+      <c r="A367" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C367" s="2"/>
+      <c r="D367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E367" s="2"/>
+      <c r="F367" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G367" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N367" s="2"/>
+      <c r="O367" s="2"/>
+      <c r="P367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q367" s="2"/>
+      <c r="R367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM367" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN367" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="368" hidden="true">
+      <c r="A368" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C368" s="2"/>
+      <c r="D368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E368" s="2"/>
+      <c r="F368" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G368" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N368" s="2"/>
+      <c r="O368" s="2"/>
+      <c r="P368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q368" s="2"/>
+      <c r="R368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM368" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN368" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="369" hidden="true">
+      <c r="A369" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C369" s="2"/>
+      <c r="D369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E369" s="2"/>
+      <c r="F369" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G369" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
+      <c r="P369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q369" s="2"/>
+      <c r="R369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN369" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="370" hidden="true">
+      <c r="A370" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E370" s="2"/>
+      <c r="F370" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O370" s="2"/>
+      <c r="P370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q370" s="2"/>
+      <c r="R370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN370" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="371" hidden="true">
+      <c r="A371" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="E371" s="2"/>
+      <c r="F371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q371" s="2"/>
+      <c r="R371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN371" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="372" hidden="true">
+      <c r="A372" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E372" s="2"/>
+      <c r="F372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N372" s="2"/>
+      <c r="O372" s="2"/>
+      <c r="P372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q372" s="2"/>
+      <c r="R372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN372" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="373" hidden="true">
+      <c r="A373" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C373" s="2"/>
+      <c r="D373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E373" s="2"/>
+      <c r="F373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q373" s="2"/>
+      <c r="R373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN373" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="374" hidden="true">
+      <c r="A374" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E374" s="2"/>
+      <c r="F374" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q374" s="2"/>
+      <c r="R374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM374" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN374" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="375" hidden="true">
+      <c r="A375" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E375" s="2"/>
+      <c r="F375" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O375" s="2"/>
+      <c r="P375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q375" s="2"/>
+      <c r="R375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM375" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN375" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="376" hidden="true">
+      <c r="A376" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E376" s="2"/>
+      <c r="F376" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O376" s="2"/>
+      <c r="P376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q376" s="2"/>
+      <c r="R376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM376" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN376" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="377" hidden="true">
+      <c r="A377" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C377" s="2"/>
+      <c r="D377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E377" s="2"/>
+      <c r="F377" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="O377" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="P377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q377" s="2"/>
+      <c r="R377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM377" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN377" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN345">
+  <autoFilter ref="A1:AN377">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -41583,7 +45308,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI344">
+  <conditionalFormatting sqref="A2:AI376">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
